--- a/Spreadsheats/result.xlsx
+++ b/Spreadsheats/result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Type</t>
   </si>
@@ -40,19 +40,7 @@
     <t>Net P/L</t>
   </si>
   <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>10:25</t>
-  </si>
-  <si>
-    <t>13:55</t>
-  </si>
-  <si>
-    <t>13:50</t>
-  </si>
-  <si>
-    <t>15:25</t>
+    <t>Long</t>
   </si>
 </sst>
 </file>
@@ -410,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,56 +437,6 @@
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>193</v>
-      </c>
-      <c r="E2">
-        <v>192.8999938964844</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0.100006103515625</v>
-      </c>
-      <c r="I2">
-        <v>0.100006103515625</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>193.1000061035156</v>
-      </c>
-      <c r="E3">
-        <v>192.6499938964844</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>0.45001220703125</v>
-      </c>
-      <c r="I3">
-        <v>0.550018310546875</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spreadsheats/result.xlsx
+++ b/Spreadsheats/result.xlsx
@@ -14,33 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Type</t>
+    <t>Stocks</t>
   </si>
   <si>
-    <t>EnterTime</t>
+    <t>BANKBARODA.NS</t>
   </si>
   <si>
-    <t>EnterPrice</t>
+    <t>FEDERALBNK.NS</t>
   </si>
   <si>
-    <t>ExitPrice</t>
+    <t>IDFCFIRSTB.NS</t>
   </si>
   <si>
-    <t>ExitTime</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>P/L</t>
-  </si>
-  <si>
-    <t>Net P/L</t>
-  </si>
-  <si>
-    <t>Long</t>
+    <t>PNB.NS</t>
   </si>
 </sst>
 </file>
@@ -398,44 +386,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Spreadsheats/result.xlsx
+++ b/Spreadsheats/result.xlsx
@@ -14,27 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Stocks</t>
-  </si>
-  <si>
-    <t>BANKBARODA.NS</t>
-  </si>
-  <si>
-    <t>FEDERALBNK.NS</t>
-  </si>
-  <si>
-    <t>IDFCFIRSTB.NS</t>
-  </si>
-  <si>
-    <t>PNB.NS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>EnterTime</t>
+  </si>
+  <si>
+    <t>EnterPrice</t>
+  </si>
+  <si>
+    <t>ExitPrice</t>
+  </si>
+  <si>
+    <t>ExitTime</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>P/L</t>
+  </si>
+  <si>
+    <t>Net P/L</t>
+  </si>
+  <si>
+    <t>Long</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -87,11 +102,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,47 +402,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44803.43402777778</v>
+      </c>
+      <c r="D2">
+        <v>193</v>
+      </c>
+      <c r="E2">
+        <v>192.8999938964844</v>
+      </c>
+      <c r="F2" s="2">
+        <v>44803.57638888889</v>
+      </c>
+      <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>-0.100006103515625</v>
+      </c>
+      <c r="I2">
+        <v>-0.100006103515625</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44803.57986111111</v>
+      </c>
+      <c r="D3">
+        <v>193.1000061035156</v>
+      </c>
+      <c r="E3">
+        <v>192.3000030517578</v>
+      </c>
+      <c r="F3" s="2">
+        <v>44805.38541666666</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>-0.8000030517578125</v>
+      </c>
+      <c r="I3">
+        <v>-0.9000091552734375</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44805.40972222222</v>
+      </c>
+      <c r="D4">
+        <v>192.1000061035156</v>
+      </c>
+      <c r="E4">
+        <v>191.9499969482422</v>
+      </c>
+      <c r="F4" s="2">
+        <v>44805.42361111111</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>-0.1500091552734375</v>
+      </c>
+      <c r="I4">
+        <v>-1.050018310546875</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44805.42708333334</v>
+      </c>
+      <c r="D5">
+        <v>192.0500030517578</v>
+      </c>
+      <c r="E5">
+        <v>191.8000030517578</v>
+      </c>
+      <c r="F5" s="2">
+        <v>44805.43402777778</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>-0.25</v>
+      </c>
+      <c r="I5">
+        <v>-1.300018310546875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44805.4375</v>
+      </c>
+      <c r="D6">
+        <v>192.0500030517578</v>
+      </c>
+      <c r="E6">
+        <v>192.4499969482422</v>
+      </c>
+      <c r="F6" s="2">
+        <v>44805.64583333334</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0.399993896484375</v>
+      </c>
+      <c r="I6">
+        <v>-0.9000244140625</v>
       </c>
     </row>
   </sheetData>
